--- a/TrelloClone-master/src/TrelloClone/wwwroot/с 2024-4-1 по 2024-3-31.xlsx
+++ b/TrelloClone-master/src/TrelloClone/wwwroot/с 2024-4-1 по 2024-3-31.xlsx
@@ -6,10 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Декабрь 2023" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Январь 2024" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Ферваль 2024" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Март 2024" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Январь 2024" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Ферваль 2024" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Март 2024" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -70,31 +69,31 @@
     <x:t>Полякова Инна Юлиановна</x:t>
   </x:si>
   <x:si>
-    <x:t>просрочка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.02.2024 0:00:00</x:t>
+    <x:t>Задача №1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Требования максимальные совсем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04.02.2024 0:00:00</x:t>
   </x:si>
   <x:si>
     <x:t>Выполнено в надлежащем качестве в установленный срок / Выполнено в надлежащем качестве</x:t>
   </x:si>
   <x:si>
-    <x:t>пвывы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Просрочено</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fhhdf</x:t>
+    <x:t>заполнил</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнено в ненадлежащем качестве в установленный срок</x:t>
+  </x:si>
+  <x:si>
+    <x:t>гшгшгшгш</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
   </x:si>
   <x:si>
-    <x:t>0%</x:t>
+    <x:t>30%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -460,23 +459,23 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M1"/>
+  <x:dimension ref="A1:M2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="1.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="31.710625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="91.853482" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="54.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="58.567768" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
   </x:cols>
@@ -520,6 +519,47 @@
       </x:c>
       <x:c r="M1" s="1" t="s">
         <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13">
+      <x:c r="A2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -552,7 +592,7 @@
     <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="91.853482" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="54.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="58.567768" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
   </x:cols>
@@ -636,7 +676,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -669,7 +709,7 @@
     <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="91.853482" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="54.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="58.567768" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
   </x:cols>
@@ -753,124 +793,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:M2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="91.853482" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="54.139196" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:13">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J1" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K1" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L1" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="M1" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:13">
-      <x:c r="A2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
